--- a/data/trans_bre/P38B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Edad-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P38B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,53; 18,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 15,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 23,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,61; 42,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 30,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 62,91</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,41%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 12,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 17,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 16,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 17,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,07; 26,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 27,49</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 8,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 12,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 10,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 17,32</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 6,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 26,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 4,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 7,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 40,09</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 5,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 5,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 5,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 5,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 5,53</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,06%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 3,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 1,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 1,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 3,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 1,65</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,96; 7,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 7,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 11,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 9,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 9,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,04; 15,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 23,7</t>
+          <t>-0,6; 22,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 62,91</t>
+          <t>-1,27; 53,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 16,5</t>
+          <t>-22,72; 13,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 27,49</t>
+          <t>-33,13; 21,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 12,54</t>
+          <t>2,48; 11,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,14 +827,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 17,32</t>
+          <t>3,13; 16,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>28,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>45,42%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 26,5</t>
+          <t>3,95; 60,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,14 +907,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 40,09</t>
+          <t>4,44; 190,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,04</t>
+          <t>-0,43; 4,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,14 +987,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,53</t>
+          <t>-0,41; 5,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,51</t>
+          <t>-4,36; 2,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,79</t>
+          <t>-1,86; 2,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,58</t>
+          <t>0,77; 5,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,76</t>
+          <t>-4,45; 2,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,85</t>
+          <t>-1,87; 2,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,65</t>
+          <t>0,8; 5,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,34; 8,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 2,24</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; -0,67</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 9,65</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; -0,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,37</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,96; 7,41</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,63; 7,33</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 11,56</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 28,24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>4,79; 9,2</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,4; 9,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 15,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 46,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P38B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 18,93</t>
+          <t>4,9; 18,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 15,54</t>
+          <t>2,12; 16,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 22,45</t>
+          <t>-0,81; 22,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 42,4</t>
+          <t>9,75; 40,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 30,05</t>
+          <t>3,77; 31,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 53,57</t>
+          <t>0,01; 53,98</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,9</t>
+          <t>4,04; 13,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,44</t>
+          <t>7,43; 17,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 13,77</t>
+          <t>-25,48; 13,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 17,57</t>
+          <t>5,25; 17,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 26,63</t>
+          <t>10,25; 26,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 21,11</t>
+          <t>-38,93; 20,44</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,68</t>
+          <t>1,35; 8,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 7,78</t>
+          <t>-0,36; 7,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 11,94</t>
+          <t>2,51; 11,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 10,45</t>
+          <t>1,5; 10,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,81</t>
+          <t>-0,44; 10,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 16,25</t>
+          <t>3,21; 15,84</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,61</t>
+          <t>-3,1; 3,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,59</t>
+          <t>-0,96; 6,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 60,04</t>
+          <t>3,49; 65,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,09</t>
+          <t>-3,36; 4,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 7,77</t>
+          <t>-1,09; 6,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 190,48</t>
+          <t>3,99; 249,48</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,36</t>
+          <t>-1,32; 5,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,01</t>
+          <t>-1,93; 4,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,7</t>
+          <t>-0,27; 5,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,91</t>
+          <t>-1,39; 5,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 5,59</t>
+          <t>-2,05; 5,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,17</t>
+          <t>-0,29; 5,59</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,04</t>
+          <t>-4,38; 2,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,69</t>
+          <t>-2,02; 2,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,29</t>
+          <t>0,65; 5,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,14</t>
+          <t>-4,46; 2,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,83</t>
+          <t>-2,05; 2,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,63</t>
+          <t>0,65; 5,49</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,71</t>
+          <t>0,27; 8,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,24</t>
+          <t>-2,32; 2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,67</t>
+          <t>-3,94; -0,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 9,65</t>
+          <t>0,32; 9,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,32</t>
+          <t>-2,34; 2,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,69</t>
+          <t>-4,01; -0,47</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,41</t>
+          <t>3,96; 7,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,33</t>
+          <t>3,81; 7,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,24; 28,24</t>
+          <t>4,37; 31,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,2</t>
+          <t>4,75; 9,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,03</t>
+          <t>4,59; 9,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,25; 46,99</t>
+          <t>5,38; 54,37</t>
         </is>
       </c>
     </row>
